--- a/Tables/Sources/gameplay/Talk/Talk.xlsx
+++ b/Tables/Sources/gameplay/Talk/Talk.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -68,7 +68,7 @@
     <t>练功场可以让弟子练功，快速升级。</t>
   </si>
   <si>
-    <t>有了伙房，食物就会自动恢复了。</t>
+    <t>升级伙房可以获得更多食物哦。</t>
   </si>
   <si>
     <t>仓库里的东西，不要了可以卖掉。</t>
@@ -77,7 +77,10 @@
     <t>建造更多的屋舍，可以招募更多弟子。</t>
   </si>
   <si>
-    <t>记得去伙房里炒菜，大有好处。</t>
+    <t>弟子多了，可以将那些品质低的逐出师门。</t>
+  </si>
+  <si>
+    <t>记得去伙房里炒菜，可以获得增益效果。</t>
   </si>
   <si>
     <t>完成挑战关卡有丰厚奖励哦。</t>
@@ -92,7 +95,16 @@
     <t>锻造屋可以打造武器和铠甲。</t>
   </si>
   <si>
+    <t>伏魔塔的关卡每天都会刷新一遍。</t>
+  </si>
+  <si>
     <t>百草屋是炼制各种药物的地方。</t>
+  </si>
+  <si>
+    <t>押镖的师兄们回来了吗？</t>
+  </si>
+  <si>
+    <t>天才级弟子完成试炼就可以成为英雄级啦！</t>
   </si>
 </sst>
 </file>
@@ -100,8 +112,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -123,14 +135,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -138,7 +172,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,20 +257,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,92 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,19 +292,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,163 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,16 +589,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,145 +616,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1094,19 +1103,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="4.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1224,10 +1233,10 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1235,10 +1244,10 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1246,10 +1255,10 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1257,10 +1266,10 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1268,10 +1277,10 @@
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1279,10 +1288,10 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1290,10 +1299,10 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1301,10 +1310,10 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1312,10 +1321,10 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1323,11 +1332,55 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
